--- a/工程管理/K-社内全体共有用資料/tbx/MainScheduleTbx設計図.xlsx
+++ b/工程管理/K-社内全体共有用資料/tbx/MainScheduleTbx設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\工程管理\K-社内全体共有用資料\tbx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHIMODA_kiri10\工程管理\K-社内全体共有用資料\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC930EC-27D5-4DA8-A471-F63A09799B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CEF538-E0AE-47D7-BFD5-7BBE0B3060FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目変数" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>###</t>
   </si>
@@ -275,6 +275,21 @@
     <rPh sb="4" eb="5">
       <t>チョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"進捗確認表"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#日時値</t>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -656,26 +671,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77DDDE5-E962-4EA1-873A-5B29B4A79591}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="1.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -698,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,16 +730,15 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f>IF(B4="数値",0,"""""")</f>
-        <v>""</v>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">"&amp;"&amp;$A$1 &amp; _xlfn.TEXTJOIN("",TRUE,IF(ISERR(FIND(MID(A4,ROW(INDIRECT("1:"&amp;LEN(A4))),1),"!@#$%^&amp;*()_+-=[]{}|;:'"",.&lt;&gt;?/~`")),MID(A4,ROW(INDIRECT("1:"&amp;LEN(A4))),1),""))</f>
@@ -732,11 +746,11 @@
       </c>
       <c r="F4" s="3" t="str">
         <f ca="1">"var "&amp;B4&amp;"  { "&amp;D4&amp;" = "&amp;C4&amp;" }"</f>
-        <v>var 日時  { &amp;Lib作業日 = "" }</v>
+        <v>var 日時  { &amp;Lib作業日 = #日時値 }</v>
       </c>
       <c r="G4" s="4" t="str">
         <f ca="1">D4&amp;" = "&amp;C4</f>
-        <v>&amp;Lib作業日 = ""</v>
+        <v>&amp;Lib作業日 = #日時値</v>
       </c>
       <c r="H4" s="5" t="str">
         <f ca="1">D4&amp;" = ["&amp;A4&amp;"]"</f>
@@ -746,40 +760,45 @@
         <f ca="1">"["&amp;A4&amp;"] = "&amp;D4</f>
         <v>[作業日] = &amp;Lib作業日</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" ref="C5:C51" si="0">IF(B5="数値",0,"""""")</f>
-        <v>""</v>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">"&amp;"&amp;$A$1 &amp; _xlfn.TEXTJOIN("",TRUE,IF(ISERR(FIND(MID(A5,ROW(INDIRECT("1:"&amp;LEN(A5))),1),"!@#$%^&amp;*()_+-=[]{}|;:'"",.&lt;&gt;?/~`")),MID(A5,ROW(INDIRECT("1:"&amp;LEN(A5))),1),""))</f>
         <v>&amp;Lib前日作業日</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F37" ca="1" si="1">"var "&amp;B5&amp;"  { "&amp;D5&amp;" = "&amp;C5&amp;" }"</f>
-        <v>var 日時  { &amp;Lib前日作業日 = "" }</v>
+        <f t="shared" ref="F5:F37" ca="1" si="0">"var "&amp;B5&amp;"  { "&amp;D5&amp;" = "&amp;C5&amp;" }"</f>
+        <v>var 日時  { &amp;Lib前日作業日 = s }</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f t="shared" ref="G5:G37" ca="1" si="2">D5&amp;" = "&amp;C5</f>
-        <v>&amp;Lib前日作業日 = ""</v>
+        <f t="shared" ref="G5:G37" ca="1" si="1">D5&amp;" = "&amp;C5</f>
+        <v>&amp;Lib前日作業日 = s</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H37" ca="1" si="3">D5&amp;" = ["&amp;A5&amp;"]"</f>
+        <f t="shared" ref="H5:H37" ca="1" si="2">D5&amp;" = ["&amp;A5&amp;"]"</f>
         <v>&amp;Lib前日作業日 = [前日作業日]</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f t="shared" ref="I5:I37" ca="1" si="4">"["&amp;A5&amp;"] = "&amp;D5</f>
+        <f t="shared" ref="I5:I37" ca="1" si="3">"["&amp;A5&amp;"] = "&amp;D5</f>
         <v>[前日作業日] = &amp;Lib前日作業日</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -787,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C51" si="4">IF(B6="数値",0,"""""")</f>
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
@@ -795,23 +814,26 @@
         <v>&amp;Lib総件数</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib総件数 = 0 }</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib総件数 = 0</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総件数 = [総件数]</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[総件数] = &amp;Lib総件数</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -819,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
@@ -827,23 +849,26 @@
         <v>&amp;Lib総枚葉</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib総枚葉 = 0 }</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib総枚葉 = 0</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総枚葉 = [総-枚葉]</v>
       </c>
       <c r="I7" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[総-枚葉] = &amp;Lib総枚葉</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -851,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
@@ -859,23 +884,26 @@
         <v>&amp;Lib総冊子</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib総冊子 = 0 }</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib総冊子 = 0</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総冊子 = [総-冊子]</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[総-冊子] = &amp;Lib総冊子</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -883,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
@@ -891,23 +919,26 @@
         <v>&amp;Lib総複写</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib総複写 = 0 }</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib総複写 = 0</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総複写 = [総-複写]</v>
       </c>
       <c r="I9" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[総-複写] = &amp;Lib総複写</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -915,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
@@ -923,23 +954,26 @@
         <v>&amp;Lib総新聞</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib総新聞 = 0 }</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib総新聞 = 0</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総新聞 = [総-新聞]</v>
       </c>
       <c r="I10" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[総-新聞] = &amp;Lib総新聞</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -947,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
@@ -955,23 +989,26 @@
         <v>&amp;Lib新着件数</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib新着件数 = 0 }</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib新着件数 = 0</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib新着件数 = [新着件数]</v>
       </c>
       <c r="I11" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[新着件数] = &amp;Lib新着件数</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -979,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
@@ -987,23 +1024,26 @@
         <v>&amp;Lib昨校了件数</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib昨校了件数 = 0 }</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib昨校了件数 = 0</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib昨校了件数 = [昨校了件数]</v>
       </c>
       <c r="I12" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[昨校了件数] = &amp;Lib昨校了件数</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
@@ -1019,23 +1059,26 @@
         <v>&amp;Lib外注発生件数</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib外注発生件数 = 0 }</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib外注発生件数 = 0</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib外注発生件数 = [外注発生件数]</v>
       </c>
       <c r="I13" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[外注発生件数] = &amp;Lib外注発生件数</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D14" s="2" t="str" cm="1">
@@ -1051,23 +1094,26 @@
         <v>&amp;Lib昨了件数</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib昨了件数 = 0 }</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib昨了件数 = 0</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib昨了件数 = [昨了件数]</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[昨了件数] = &amp;Lib昨了件数</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
@@ -1083,23 +1129,26 @@
         <v>&amp;LibM総量</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM総量 = 0 }</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM総量 = 0</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM総量 = [M総量]</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M総量] = &amp;LibM総量</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
@@ -1115,23 +1164,26 @@
         <v>&amp;LibM校了済</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM校了済 = 0 }</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM校了済 = 0</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM校了済 = [M校了済]</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M校了済] = &amp;LibM校了済</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D17" s="2" t="str" cm="1">
@@ -1147,23 +1199,26 @@
         <v>&amp;LibM枚葉</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM枚葉 = 0 }</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM枚葉 = 0</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM枚葉 = [M枚葉]</v>
       </c>
       <c r="I17" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M枚葉] = &amp;LibM枚葉</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D18" s="2" t="str" cm="1">
@@ -1179,23 +1234,26 @@
         <v>&amp;LibM冊子</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM冊子 = 0 }</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM冊子 = 0</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM冊子 = [M冊子]</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M冊子] = &amp;LibM冊子</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D19" s="2" t="str" cm="1">
@@ -1211,23 +1269,26 @@
         <v>&amp;LibM新聞</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM新聞 = 0 }</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM新聞 = 0</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM新聞 = [M新聞]</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M新聞] = &amp;LibM新聞</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1235,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D20" s="2" t="str" cm="1">
@@ -1243,23 +1304,26 @@
         <v>&amp;LibM複写</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM複写 = 0 }</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM複写 = 0</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM複写 = [M複写]</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M複写] = &amp;LibM複写</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1267,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D21" s="2" t="str" cm="1">
@@ -1275,23 +1339,26 @@
         <v>&amp;LibM1総量</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM1総量 = 0 }</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM1総量 = 0</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1総量 = [M+1総量]</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+1総量] = &amp;LibM1総量</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D22" s="2" t="str" cm="1">
@@ -1307,23 +1374,26 @@
         <v>&amp;LibM1校了済</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM1校了済 = 0 }</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM1校了済 = 0</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1校了済 = [M+1校了済]</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+1校了済] = &amp;LibM1校了済</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D23" s="2" t="str" cm="1">
@@ -1339,23 +1409,26 @@
         <v>&amp;LibM1枚葉</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM1枚葉 = 0 }</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM1枚葉 = 0</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1枚葉 = [M+1枚葉]</v>
       </c>
       <c r="I23" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+1枚葉] = &amp;LibM1枚葉</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D24" s="2" t="str" cm="1">
@@ -1371,23 +1444,26 @@
         <v>&amp;LibM1冊子</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM1冊子 = 0 }</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM1冊子 = 0</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1冊子 = [M+1冊子]</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+1冊子] = &amp;LibM1冊子</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D25" s="2" t="str" cm="1">
@@ -1403,23 +1479,26 @@
         <v>&amp;LibM1新聞</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM1新聞 = 0 }</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM1新聞 = 0</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1新聞 = [M+1新聞]</v>
       </c>
       <c r="I25" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+1新聞] = &amp;LibM1新聞</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1427,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D26" s="2" t="str" cm="1">
@@ -1435,23 +1514,26 @@
         <v>&amp;LibM1複写</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM1複写 = 0 }</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM1複写 = 0</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1複写 = [M+1複写]</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+1複写] = &amp;LibM1複写</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1459,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D27" s="2" t="str" cm="1">
@@ -1467,23 +1549,26 @@
         <v>&amp;LibM2総量</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM2総量 = 0 }</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM2総量 = 0</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2総量 = [M+2総量]</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+2総量] = &amp;LibM2総量</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1491,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D28" s="2" t="str" cm="1">
@@ -1499,23 +1584,26 @@
         <v>&amp;LibM2校了済</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM2校了済 = 0 }</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM2校了済 = 0</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2校了済 = [M+2校了済]</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+2校了済] = &amp;LibM2校了済</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1523,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D29" s="2" t="str" cm="1">
@@ -1531,23 +1619,26 @@
         <v>&amp;LibM2枚葉</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM2枚葉 = 0 }</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM2枚葉 = 0</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2枚葉 = [M+2枚葉]</v>
       </c>
       <c r="I29" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+2枚葉] = &amp;LibM2枚葉</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1555,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D30" s="2" t="str" cm="1">
@@ -1563,23 +1654,26 @@
         <v>&amp;LibM2冊子</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM2冊子 = 0 }</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM2冊子 = 0</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2冊子 = [M+2冊子]</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+2冊子] = &amp;LibM2冊子</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D31" s="2" t="str" cm="1">
@@ -1595,23 +1689,26 @@
         <v>&amp;LibM2新聞</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM2新聞 = 0 }</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM2新聞 = 0</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2新聞 = [M+2新聞]</v>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+2新聞] = &amp;LibM2新聞</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -1619,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D32" s="2" t="str" cm="1">
@@ -1627,23 +1724,26 @@
         <v>&amp;LibM2複写</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;LibM2複写 = 0 }</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;LibM2複写 = 0</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2複写 = [M+2複写]</v>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[M+2複写] = &amp;LibM2複写</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -1651,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D33" s="2" t="str" cm="1">
@@ -1659,23 +1759,26 @@
         <v>&amp;Lib進捗未校了</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib進捗未校了 = 0 }</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib進捗未校了 = 0</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗未校了 = [進捗未校了]</v>
       </c>
       <c r="I33" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[進捗未校了] = &amp;Lib進捗未校了</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -1683,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D34" s="2" t="str" cm="1">
@@ -1691,23 +1794,26 @@
         <v>&amp;Lib進捗製版</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib進捗製版 = 0 }</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib進捗製版 = 0</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗製版 = [進捗製版]</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[進捗製版] = &amp;Lib進捗製版</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -1715,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D35" s="2" t="str" cm="1">
@@ -1723,23 +1829,26 @@
         <v>&amp;Lib進捗印刷</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib進捗印刷 = 0 }</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib進捗印刷 = 0</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗印刷 = [進捗印刷]</v>
       </c>
       <c r="I35" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[進捗印刷] = &amp;Lib進捗印刷</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1747,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D36" s="2" t="str" cm="1">
@@ -1755,55 +1864,60 @@
         <v>&amp;Lib進捗仕上</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>var 数値  { &amp;Lib進捗仕上 = 0 }</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>&amp;Lib進捗仕上 = 0</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗仕上 = [進捗仕上]</v>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[進捗仕上] = &amp;Lib進捗仕上</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
+      <c r="C37" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">"&amp;"&amp;$A$1 &amp; _xlfn.TEXTJOIN("",TRUE,IF(ISERR(FIND(MID(A37,ROW(INDIRECT("1:"&amp;LEN(A37))),1),"!@#$%^&amp;*()_+-=[]{}|;:'"",.&lt;&gt;?/~`")),MID(A37,ROW(INDIRECT("1:"&amp;LEN(A37))),1),""))</f>
         <v>&amp;Libグラフ名</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>var 文字列  { &amp;Libグラフ名 = "" }</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>var 文字列  { &amp;Libグラフ名 = "進捗確認表" }</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>&amp;Libグラフ名 = ""</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>&amp;Libグラフ名 = "進捗確認表"</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Libグラフ名 = [グラフ名]</v>
       </c>
       <c r="I37" s="6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>[グラフ名] = &amp;Libグラフ名</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1811,14 +1925,14 @@
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -1826,14 +1940,14 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1841,14 +1955,14 @@
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1856,14 +1970,14 @@
         <v>4</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -1871,14 +1985,14 @@
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -1886,14 +2000,14 @@
         <v>4</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1901,14 +2015,14 @@
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -1916,14 +2030,14 @@
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -1931,14 +2045,14 @@
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -1946,14 +2060,14 @@
         <v>4</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -1961,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" s="3">
@@ -1976,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" s="3">
@@ -1991,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -2003,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>""</v>
       </c>
     </row>
@@ -2022,7 +2136,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2">

--- a/工程管理/K-社内全体共有用資料/tbx/MainScheduleTbx設計図.xlsx
+++ b/工程管理/K-社内全体共有用資料/tbx/MainScheduleTbx設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHIMODA_kiri10\工程管理\K-社内全体共有用資料\tbx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\工程管理\K-社内全体共有用資料\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CEF538-E0AE-47D7-BFD5-7BBE0B3060FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64F761-A325-48B8-B9BF-2CA34E9C941D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目変数" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>###</t>
   </si>
@@ -287,10 +287,6 @@
   </si>
   <si>
     <t>#日時値</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -674,19 +670,19 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="1.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="1.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.875" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -771,27 +767,28 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
+      <c r="C5" s="2" t="str">
+        <f t="shared" ref="C5:C51" si="0">IF(B5="数値",0,"""""")</f>
+        <v>""</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">"&amp;"&amp;$A$1 &amp; _xlfn.TEXTJOIN("",TRUE,IF(ISERR(FIND(MID(A5,ROW(INDIRECT("1:"&amp;LEN(A5))),1),"!@#$%^&amp;*()_+-=[]{}|;:'"",.&lt;&gt;?/~`")),MID(A5,ROW(INDIRECT("1:"&amp;LEN(A5))),1),""))</f>
         <v>&amp;Lib前日作業日</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F37" ca="1" si="0">"var "&amp;B5&amp;"  { "&amp;D5&amp;" = "&amp;C5&amp;" }"</f>
-        <v>var 日時  { &amp;Lib前日作業日 = s }</v>
+        <f t="shared" ref="F5:F37" ca="1" si="1">"var "&amp;B5&amp;"  { "&amp;D5&amp;" = "&amp;C5&amp;" }"</f>
+        <v>var 日時  { &amp;Lib前日作業日 = "" }</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f t="shared" ref="G5:G37" ca="1" si="1">D5&amp;" = "&amp;C5</f>
-        <v>&amp;Lib前日作業日 = s</v>
+        <f t="shared" ref="G5:G37" ca="1" si="2">D5&amp;" = "&amp;C5</f>
+        <v>&amp;Lib前日作業日 = ""</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H37" ca="1" si="2">D5&amp;" = ["&amp;A5&amp;"]"</f>
+        <f t="shared" ref="H5:H37" ca="1" si="3">D5&amp;" = ["&amp;A5&amp;"]"</f>
         <v>&amp;Lib前日作業日 = [前日作業日]</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f t="shared" ref="I5:I37" ca="1" si="3">"["&amp;A5&amp;"] = "&amp;D5</f>
+        <f t="shared" ref="I5:I37" ca="1" si="4">"["&amp;A5&amp;"] = "&amp;D5</f>
         <v>[前日作業日] = &amp;Lib前日作業日</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -806,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C5:C51" si="4">IF(B6="数値",0,"""""")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
@@ -814,19 +811,19 @@
         <v>&amp;Lib総件数</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib総件数 = 0 }</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総件数 = 0</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib総件数 = [総件数]</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[総件数] = &amp;Lib総件数</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -841,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
@@ -849,19 +846,19 @@
         <v>&amp;Lib総枚葉</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib総枚葉 = 0 }</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総枚葉 = 0</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib総枚葉 = [総-枚葉]</v>
       </c>
       <c r="I7" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[総-枚葉] = &amp;Lib総枚葉</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -876,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
@@ -884,19 +881,19 @@
         <v>&amp;Lib総冊子</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib総冊子 = 0 }</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総冊子 = 0</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib総冊子 = [総-冊子]</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[総-冊子] = &amp;Lib総冊子</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -911,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
@@ -919,19 +916,19 @@
         <v>&amp;Lib総複写</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib総複写 = 0 }</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総複写 = 0</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib総複写 = [総-複写]</v>
       </c>
       <c r="I9" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[総-複写] = &amp;Lib総複写</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -946,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
@@ -954,19 +951,19 @@
         <v>&amp;Lib総新聞</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib総新聞 = 0 }</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib総新聞 = 0</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib総新聞 = [総-新聞]</v>
       </c>
       <c r="I10" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[総-新聞] = &amp;Lib総新聞</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -981,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
@@ -989,19 +986,19 @@
         <v>&amp;Lib新着件数</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib新着件数 = 0 }</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib新着件数 = 0</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib新着件数 = [新着件数]</v>
       </c>
       <c r="I11" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[新着件数] = &amp;Lib新着件数</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1016,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
@@ -1024,19 +1021,19 @@
         <v>&amp;Lib昨校了件数</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib昨校了件数 = 0 }</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib昨校了件数 = 0</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib昨校了件数 = [昨校了件数]</v>
       </c>
       <c r="I12" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[昨校了件数] = &amp;Lib昨校了件数</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1051,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
@@ -1059,19 +1056,19 @@
         <v>&amp;Lib外注発生件数</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib外注発生件数 = 0 }</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib外注発生件数 = 0</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib外注発生件数 = [外注発生件数]</v>
       </c>
       <c r="I13" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[外注発生件数] = &amp;Lib外注発生件数</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1086,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="2" t="str" cm="1">
@@ -1094,19 +1091,19 @@
         <v>&amp;Lib昨了件数</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib昨了件数 = 0 }</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib昨了件数 = 0</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib昨了件数 = [昨了件数]</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[昨了件数] = &amp;Lib昨了件数</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1121,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
@@ -1129,19 +1126,19 @@
         <v>&amp;LibM総量</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM総量 = 0 }</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM総量 = 0</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM総量 = [M総量]</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M総量] = &amp;LibM総量</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1156,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
@@ -1164,19 +1161,19 @@
         <v>&amp;LibM校了済</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM校了済 = 0 }</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM校了済 = 0</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM校了済 = [M校了済]</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M校了済] = &amp;LibM校了済</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1191,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="2" t="str" cm="1">
@@ -1199,19 +1196,19 @@
         <v>&amp;LibM枚葉</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM枚葉 = 0 }</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM枚葉 = 0</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM枚葉 = [M枚葉]</v>
       </c>
       <c r="I17" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M枚葉] = &amp;LibM枚葉</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1226,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="2" t="str" cm="1">
@@ -1234,19 +1231,19 @@
         <v>&amp;LibM冊子</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM冊子 = 0 }</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM冊子 = 0</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM冊子 = [M冊子]</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M冊子] = &amp;LibM冊子</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1261,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="2" t="str" cm="1">
@@ -1269,19 +1266,19 @@
         <v>&amp;LibM新聞</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM新聞 = 0 }</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM新聞 = 0</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM新聞 = [M新聞]</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M新聞] = &amp;LibM新聞</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1296,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="2" t="str" cm="1">
@@ -1304,19 +1301,19 @@
         <v>&amp;LibM複写</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM複写 = 0 }</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM複写 = 0</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM複写 = [M複写]</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M複写] = &amp;LibM複写</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1331,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="2" t="str" cm="1">
@@ -1339,19 +1336,19 @@
         <v>&amp;LibM1総量</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM1総量 = 0 }</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1総量 = 0</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM1総量 = [M+1総量]</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+1総量] = &amp;LibM1総量</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -1366,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="2" t="str" cm="1">
@@ -1374,19 +1371,19 @@
         <v>&amp;LibM1校了済</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM1校了済 = 0 }</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1校了済 = 0</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM1校了済 = [M+1校了済]</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+1校了済] = &amp;LibM1校了済</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -1401,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="2" t="str" cm="1">
@@ -1409,19 +1406,19 @@
         <v>&amp;LibM1枚葉</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM1枚葉 = 0 }</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1枚葉 = 0</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM1枚葉 = [M+1枚葉]</v>
       </c>
       <c r="I23" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+1枚葉] = &amp;LibM1枚葉</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -1436,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="2" t="str" cm="1">
@@ -1444,19 +1441,19 @@
         <v>&amp;LibM1冊子</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM1冊子 = 0 }</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1冊子 = 0</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM1冊子 = [M+1冊子]</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+1冊子] = &amp;LibM1冊子</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -1471,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="2" t="str" cm="1">
@@ -1479,19 +1476,19 @@
         <v>&amp;LibM1新聞</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM1新聞 = 0 }</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1新聞 = 0</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM1新聞 = [M+1新聞]</v>
       </c>
       <c r="I25" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+1新聞] = &amp;LibM1新聞</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -1506,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="2" t="str" cm="1">
@@ -1514,19 +1511,19 @@
         <v>&amp;LibM1複写</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM1複写 = 0 }</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM1複写 = 0</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM1複写 = [M+1複写]</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+1複写] = &amp;LibM1複写</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -1541,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="2" t="str" cm="1">
@@ -1549,19 +1546,19 @@
         <v>&amp;LibM2総量</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM2総量 = 0 }</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2総量 = 0</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM2総量 = [M+2総量]</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+2総量] = &amp;LibM2総量</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -1576,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="2" t="str" cm="1">
@@ -1584,19 +1581,19 @@
         <v>&amp;LibM2校了済</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM2校了済 = 0 }</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2校了済 = 0</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM2校了済 = [M+2校了済]</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+2校了済] = &amp;LibM2校了済</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -1611,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="2" t="str" cm="1">
@@ -1619,19 +1616,19 @@
         <v>&amp;LibM2枚葉</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM2枚葉 = 0 }</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2枚葉 = 0</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM2枚葉 = [M+2枚葉]</v>
       </c>
       <c r="I29" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+2枚葉] = &amp;LibM2枚葉</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -1646,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="2" t="str" cm="1">
@@ -1654,19 +1651,19 @@
         <v>&amp;LibM2冊子</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM2冊子 = 0 }</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2冊子 = 0</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM2冊子 = [M+2冊子]</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+2冊子] = &amp;LibM2冊子</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -1681,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="2" t="str" cm="1">
@@ -1689,19 +1686,19 @@
         <v>&amp;LibM2新聞</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM2新聞 = 0 }</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2新聞 = 0</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM2新聞 = [M+2新聞]</v>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+2新聞] = &amp;LibM2新聞</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -1716,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="2" t="str" cm="1">
@@ -1724,19 +1721,19 @@
         <v>&amp;LibM2複写</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;LibM2複写 = 0 }</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;LibM2複写 = 0</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;LibM2複写 = [M+2複写]</v>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[M+2複写] = &amp;LibM2複写</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -1751,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="2" t="str" cm="1">
@@ -1759,19 +1756,19 @@
         <v>&amp;Lib進捗未校了</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib進捗未校了 = 0 }</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗未校了 = 0</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib進捗未校了 = [進捗未校了]</v>
       </c>
       <c r="I33" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[進捗未校了] = &amp;Lib進捗未校了</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -1786,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="2" t="str" cm="1">
@@ -1794,19 +1791,19 @@
         <v>&amp;Lib進捗製版</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib進捗製版 = 0 }</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗製版 = 0</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib進捗製版 = [進捗製版]</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[進捗製版] = &amp;Lib進捗製版</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -1821,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="2" t="str" cm="1">
@@ -1829,19 +1826,19 @@
         <v>&amp;Lib進捗印刷</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib進捗印刷 = 0 }</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗印刷 = 0</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib進捗印刷 = [進捗印刷]</v>
       </c>
       <c r="I35" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[進捗印刷] = &amp;Lib進捗印刷</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -1856,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="2" t="str" cm="1">
@@ -1864,19 +1861,19 @@
         <v>&amp;Lib進捗仕上</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 数値  { &amp;Lib進捗仕上 = 0 }</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Lib進捗仕上 = 0</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Lib進捗仕上 = [進捗仕上]</v>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[進捗仕上] = &amp;Lib進捗仕上</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -1898,19 +1895,19 @@
         <v>&amp;Libグラフ名</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>var 文字列  { &amp;Libグラフ名 = "進捗確認表" }</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>&amp;Libグラフ名 = "進捗確認表"</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>&amp;Libグラフ名 = [グラフ名]</v>
       </c>
       <c r="I37" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>[グラフ名] = &amp;Libグラフ名</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -1925,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="3">
@@ -1940,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
@@ -1955,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="3">
@@ -1970,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
@@ -1985,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
@@ -2000,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
@@ -2015,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="3">
@@ -2030,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="3">
@@ -2045,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46" s="3">
@@ -2060,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47" s="3">
@@ -2075,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F48" s="3">
@@ -2090,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F49" s="3">
@@ -2105,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -2117,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>""</v>
       </c>
     </row>
@@ -2136,7 +2133,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2">
